--- a/Datos/data_master.xlsx
+++ b/Datos/data_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MBP/Ponce Health Sciences University/Evidence computer-assisted reading interventions - Documentos/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1643" documentId="11_E81672FC5CF8BA3067CC11F7F7A78F6A5450F117" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D99D9B8C-2843-5B4E-84AB-3E3E0511545C}"/>
+  <xr:revisionPtr revIDLastSave="1643" documentId="11_E81672FC5CF8BA3067CC11F7F7A78F6A5450F117" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B04B6548-2C4C-614A-BF45-2EC91D64BA3B}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="0" windowWidth="21000" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_56F9DC9755BA473782653E2940F9" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -2732,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DCC8F8-9AF7-4852-993C-1C43D0DE4DF4}">
   <dimension ref="A1:BF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="200" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6459,15 +6459,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67AF54F8-9454-44E1-A274-4CE13ABA8D28}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="17c5fd42-a044-4f07-a556-35a9304bdabd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="17c5fd42-a044-4f07-a556-35a9304bdabd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
